--- a/MBT_UFTOne_Samples/Default.xlsx
+++ b/MBT_UFTOne_Samples/Default.xlsx
@@ -8,10 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
-    <sheet name="LoginSiteUserUnit" sheetId="2" r:id="rId2"/>
-    <sheet name="RegisterNewUserUnit" sheetId="3" r:id="rId3"/>
-    <sheet name="OpenNewAccountUnit" sheetId="4" r:id="rId4"/>
-    <sheet name="LogoutUnit" sheetId="5" r:id="rId5"/>
+    <sheet name="LoginSiteUser" sheetId="2" r:id="rId2"/>
+    <sheet name="RegisterNewUser" sheetId="3" r:id="rId3"/>
+    <sheet name="OpenNewAccount" sheetId="4" r:id="rId4"/>
+    <sheet name="Logout" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
